--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-21/Sample-21.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-21/Sample-21.xlsx
@@ -8,6 +8,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$B$1:$K$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sheet2'!$B$3:$L$4</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -144,14 +148,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="pvsxw034" xfId="1"/>
-    <cellStyle name="pvsxw034_Alternate" xfId="2"/>
-    <cellStyle name="bkxlkmxi" xfId="3"/>
-    <cellStyle name="bkxlkmxi_Alternate" xfId="4"/>
-    <cellStyle name="f2jjqumn" xfId="5"/>
-    <cellStyle name="f2jjqumn_Alternate" xfId="6"/>
-    <cellStyle name="zslcw0bi" xfId="7"/>
-    <cellStyle name="zslcw0bi_Alternate" xfId="8"/>
+    <cellStyle name="y23a2pyx" xfId="1"/>
+    <cellStyle name="y23a2pyx_Alternate" xfId="2"/>
+    <cellStyle name="4gmymbsv" xfId="3"/>
+    <cellStyle name="4gmymbsv_Alternate" xfId="4"/>
+    <cellStyle name="pszou1pu" xfId="5"/>
+    <cellStyle name="pszou1pu_Alternate" xfId="6"/>
+    <cellStyle name="nybkgtj4" xfId="7"/>
+    <cellStyle name="nybkgtj4_Alternate" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -164,6 +168,18 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="12.8049335479736" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="13.1027069091797" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="10.48570728302" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="13.1027069091797" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="9" t="s">
@@ -325,6 +341,8 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -336,6 +354,19 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="12.9081707000732" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="12.9081707000732" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="12.9081707000732" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="12.9081707000732" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="12.9081707000732" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="12.9081707000732" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="12.9081707000732" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="12.9081707000732" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="12.9081707000732" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="12.9081707000732" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="B3" s="9" t="s">
@@ -408,6 +439,8 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-21/Sample-21.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-21/Sample-21.xlsx
@@ -148,14 +148,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="y23a2pyx" xfId="1"/>
-    <cellStyle name="y23a2pyx_Alternate" xfId="2"/>
-    <cellStyle name="4gmymbsv" xfId="3"/>
-    <cellStyle name="4gmymbsv_Alternate" xfId="4"/>
-    <cellStyle name="pszou1pu" xfId="5"/>
-    <cellStyle name="pszou1pu_Alternate" xfId="6"/>
-    <cellStyle name="nybkgtj4" xfId="7"/>
-    <cellStyle name="nybkgtj4_Alternate" xfId="8"/>
+    <cellStyle name="dwzjjrry" xfId="1"/>
+    <cellStyle name="dwzjjrry_Alternate" xfId="2"/>
+    <cellStyle name="n145sfsf" xfId="3"/>
+    <cellStyle name="n145sfsf_Alternate" xfId="4"/>
+    <cellStyle name="ymc03boo" xfId="5"/>
+    <cellStyle name="ymc03boo_Alternate" xfId="6"/>
+    <cellStyle name="ouf3054i" xfId="7"/>
+    <cellStyle name="ouf3054i_Alternate" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-21/Sample-21.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-21/Sample-21.xlsx
@@ -148,14 +148,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="dwzjjrry" xfId="1"/>
-    <cellStyle name="dwzjjrry_Alternate" xfId="2"/>
-    <cellStyle name="n145sfsf" xfId="3"/>
-    <cellStyle name="n145sfsf_Alternate" xfId="4"/>
-    <cellStyle name="ymc03boo" xfId="5"/>
-    <cellStyle name="ymc03boo_Alternate" xfId="6"/>
-    <cellStyle name="ouf3054i" xfId="7"/>
-    <cellStyle name="ouf3054i_Alternate" xfId="8"/>
+    <cellStyle name="bp1kyfrr" xfId="1"/>
+    <cellStyle name="bp1kyfrr_Alternate" xfId="2"/>
+    <cellStyle name="o0md4xfy" xfId="3"/>
+    <cellStyle name="o0md4xfy_Alternate" xfId="4"/>
+    <cellStyle name="orp50c2j" xfId="5"/>
+    <cellStyle name="orp50c2j_Alternate" xfId="6"/>
+    <cellStyle name="qh1ceqkn" xfId="7"/>
+    <cellStyle name="qh1ceqkn_Alternate" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
